--- a/Umfrage_B_Masterarbeit/Aufbereitet/Aufbereitet_Alle.xlsx
+++ b/Umfrage_B_Masterarbeit/Aufbereitet/Aufbereitet_Alle.xlsx
@@ -72,7 +72,7 @@
     <t xml:space="preserve">👍</t>
   </si>
   <si>
-    <t xml:space="preserve">Unvollständige Datensätze</t>
+    <t xml:space="preserve">Unvollständige Datensätze gelb Markiert</t>
   </si>
   <si>
     <t xml:space="preserve">👎</t>
@@ -275,7 +275,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -332,7 +332,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -352,11 +352,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -511,7 +507,7 @@
   <dimension ref="A1:AMJ139"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A138" activeCellId="0" sqref="A138"/>
+      <selection pane="topLeft" activeCell="Q11" activeCellId="0" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -521,7 +517,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="11" style="1" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="3.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="13" style="1" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="38.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="18" style="1" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16381" style="2" width="11.53"/>
   </cols>
   <sheetData>
@@ -60001,8 +60001,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="25.58"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60104,15 +60104,15 @@
         <v>28</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="20" t="n">
+      <c r="C8" s="19" t="n">
         <f aca="false">SUM(C4:C7)</f>
         <v>105</v>
       </c>
-      <c r="D8" s="20" t="n">
+      <c r="D8" s="19" t="n">
         <f aca="false">SUM(D4:D7)</f>
         <v>188</v>
       </c>
-      <c r="E8" s="21" t="n">
+      <c r="E8" s="20" t="n">
         <f aca="false">D8/C8</f>
         <v>1.79047619047619</v>
       </c>
@@ -60216,15 +60216,15 @@
         <v>28</v>
       </c>
       <c r="B17" s="19"/>
-      <c r="C17" s="20" t="n">
+      <c r="C17" s="19" t="n">
         <f aca="false">SUM(C13:C16)</f>
         <v>105</v>
       </c>
-      <c r="D17" s="20" t="n">
+      <c r="D17" s="19" t="n">
         <f aca="false">SUM(D13:D16)</f>
         <v>200</v>
       </c>
-      <c r="E17" s="21" t="n">
+      <c r="E17" s="20" t="n">
         <f aca="false">D17/C17</f>
         <v>1.9047619047619</v>
       </c>
@@ -60328,15 +60328,15 @@
         <v>28</v>
       </c>
       <c r="B26" s="19"/>
-      <c r="C26" s="20" t="n">
+      <c r="C26" s="19" t="n">
         <f aca="false">SUM(C22:C25)</f>
         <v>105</v>
       </c>
-      <c r="D26" s="20" t="n">
+      <c r="D26" s="19" t="n">
         <f aca="false">SUM(D22:D25)</f>
         <v>133</v>
       </c>
-      <c r="E26" s="21" t="n">
+      <c r="E26" s="20" t="n">
         <f aca="false">D26/C26</f>
         <v>1.26666666666667</v>
       </c>
@@ -60440,15 +60440,15 @@
         <v>28</v>
       </c>
       <c r="B36" s="19"/>
-      <c r="C36" s="20" t="n">
+      <c r="C36" s="19" t="n">
         <f aca="false">SUM(C32:C35)</f>
         <v>105</v>
       </c>
-      <c r="D36" s="20" t="n">
+      <c r="D36" s="19" t="n">
         <f aca="false">SUM(D32:D35)</f>
         <v>109</v>
       </c>
-      <c r="E36" s="21" t="n">
+      <c r="E36" s="20" t="n">
         <f aca="false">D36/C36</f>
         <v>1.03809523809524</v>
       </c>
